--- a/data/trans_camb/P16B08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,65</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,81</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 28,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,15; 6,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 27,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 26,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 18,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,24; 8,61</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,04%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 39,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,94; 4,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 37,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 35,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 22,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,84; 9,5</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,42</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 47,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,58; 42,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,6; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 17,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 17,56</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,23%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,05%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 90,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,6; 75,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,6; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,75; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,83; 21,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 22,01</t>
         </is>
       </c>
     </row>
@@ -918,27 +918,27 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>-4,89</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-4,58</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,68</t>
         </is>
       </c>
     </row>
@@ -956,27 +956,27 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>-25,88; 0,0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; 0,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; -1,46</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,89%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,58%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,68%</t>
         </is>
       </c>
     </row>
@@ -1032,27 +1032,27 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-25,88; 0,0</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; 0,0</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,84; -1,46</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>25,5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25,5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-8,84</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,0; 70,06</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 70,06</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-21,96; -2,62</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,91; 23,58</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,94</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>0,0; 230,79</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 230,79</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-21,96; -2,62</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,26; 33,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 51,29</t>
         </is>
       </c>
     </row>
@@ -1230,27 +1230,27 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>-5,92</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-6,95</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,52</t>
         </is>
       </c>
     </row>
@@ -1268,27 +1268,27 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
+          <t>-29,49; 0,0</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 0,0</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,89; 0,0</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,92%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,52%</t>
         </is>
       </c>
     </row>
@@ -1344,27 +1344,27 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
+          <t>-29,49; 0,0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr">
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-29,02; 0,0</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,89; 0,0</t>
         </is>
       </c>
     </row>
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,07; 12,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,53; 13,09</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 11,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 9,29</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,75%</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,08; 14,89</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 15,13</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 13,3</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 10,23</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,78</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,17</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,33; 20,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; 12,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,71; 1,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,33; 1,18</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 7,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 4,48</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,81%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,17%</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,37; 26,18</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 15,46</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,79; 1,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 1,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 7,63</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,92; 4,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1391,22 +1391,22 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-0,69</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 12,93</t>
+          <t>-20,09; 12,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,53; 13,09</t>
+          <t>-22,75; 12,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 11,86</t>
+          <t>-7,26; 15,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 9,29</t>
+          <t>-16,71; 9,46</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>-1,32%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>-0,72%</t>
         </is>
       </c>
     </row>
@@ -1505,29 +1505,29 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 14,89</t>
+          <t>-20,27; 14,21</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 15,13</t>
+          <t>-22,85; 13,97</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 13,3</t>
+          <t>-7,29; 18,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 10,23</t>
+          <t>-17,53; 10,44</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>8,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,33; 20,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,48</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-1,81%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-1,71%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>8,78</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-1,79</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 20,76</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-5,58; 12,84</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-4,71; 1,63</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 1,18</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 7,0</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 4,48</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-1,81%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-1,71%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>2,19%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>3,37; 26,18</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-5,83; 15,46</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-4,79; 1,67</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-5,39; 1,22</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-0,86; 7,63</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>-3,92; 4,78</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P16B08-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16B08-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,48</t>
+          <t>0,0; 31,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 6,42</t>
+          <t>-42,72; 6,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,31</t>
+          <t>0,0; 20,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,0</t>
+          <t>0,0; 22,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,13</t>
+          <t>0,0; 18,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,24; 8,61</t>
+          <t>-17,77; 6,7</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,95</t>
+          <t>0,0; 45,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,94; 4,62</t>
+          <t>-45,81; 7,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,66</t>
+          <t>0,0; 26,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,13</t>
+          <t>0,0; 29,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,13</t>
+          <t>0,0; 23,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 9,5</t>
+          <t>-18,57; 7,4</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,73</t>
+          <t>0,0; 47,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 42,98</t>
+          <t>-4,77; 42,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 0,0</t>
+          <t>-18,28; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 0,0</t>
+          <t>-16,7; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 17,0</t>
+          <t>-3,75; 19,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 17,56</t>
+          <t>-3,57; 17,74</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 90,51</t>
+          <t>0,0; 91,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 75,45</t>
+          <t>-4,74; 88,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,6; 0,0</t>
+          <t>-18,28; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 0,0</t>
+          <t>-16,7; 0,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,83; 21,49</t>
+          <t>-3,8; 24,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 22,01</t>
+          <t>-3,58; 21,83</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 0,0</t>
+          <t>-25,46; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 0,0</t>
+          <t>-14,09; 0,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,84; -1,46</t>
+          <t>-12,52; -1,44</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 0,0</t>
+          <t>-25,46; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 0,0</t>
+          <t>-14,09; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,84; -1,46</t>
+          <t>-12,52; -1,44</t>
         </is>
       </c>
     </row>
@@ -1107,17 +1107,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,06</t>
+          <t>0,0; 68,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,06</t>
+          <t>0,0; 68,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -2,62</t>
+          <t>-22,81; -2,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 23,58</t>
+          <t>-7,88; 22,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,94</t>
+          <t>0,0; 29,85</t>
         </is>
       </c>
     </row>
@@ -1183,17 +1183,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 230,79</t>
+          <t>0,0; 215,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 230,79</t>
+          <t>0,0; 215,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,96; -2,62</t>
+          <t>-22,81; -2,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 33,55</t>
+          <t>-7,95; 30,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,29</t>
+          <t>0,0; 42,45</t>
         </is>
       </c>
     </row>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 0,0</t>
+          <t>-30,27; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 0,0</t>
+          <t>-31,73; 0,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 0,0</t>
+          <t>-20,5; 0,0</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 0,0</t>
+          <t>-30,27; 0,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 0,0</t>
+          <t>-31,73; 0,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,89; 0,0</t>
+          <t>-20,5; 0,0</t>
         </is>
       </c>
     </row>
@@ -1429,22 +1429,22 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 12,24</t>
+          <t>-20,1; 12,32</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 12,26</t>
+          <t>-22,76; 12,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 15,5</t>
+          <t>-7,3; 18,69</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-16,71; 9,46</t>
+          <t>-16,21; 12,74</t>
         </is>
       </c>
     </row>
@@ -1505,22 +1505,22 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 14,21</t>
+          <t>-21,13; 14,18</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 13,97</t>
+          <t>-22,89; 14,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 18,63</t>
+          <t>-7,31; 22,98</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-17,53; 10,44</t>
+          <t>-16,3; 14,74</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>3,33; 20,76</t>
+          <t>2,77; 19,52</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 12,84</t>
+          <t>-5,76; 13,36</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,63</t>
+          <t>-5,09; 1,38</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,18</t>
+          <t>-5,35; 1,23</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 7,0</t>
+          <t>-0,79; 7,04</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 4,48</t>
+          <t>-4,22; 4,42</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>3,37; 26,18</t>
+          <t>2,85; 24,25</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 15,46</t>
+          <t>-5,87; 16,46</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 1,67</t>
+          <t>-5,11; 1,41</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,22</t>
+          <t>-5,42; 1,27</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 7,63</t>
+          <t>-0,8; 7,68</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,78</t>
+          <t>-4,32; 4,81</t>
         </is>
       </c>
     </row>
